--- a/src/main/resources/excel/npc/npcOption.xlsx
+++ b/src/main/resources/excel/npc/npcOption.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyFirstGame\src\main\resources\excel\npc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\MyGame\src\main\resources\excel\npc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C7FEE5C-D8DF-4BAA-84E9-FCFDB59E3BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D36E234-6068-4CAE-8060-EA02982A0099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8472" yWindow="2256" windowWidth="11592" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11148" yWindow="1116" windowWidth="16560" windowHeight="11688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,14 @@
   </si>
   <si>
     <t>移动操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入副本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入血色之地副本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -469,6 +477,23 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
